--- a/data/metadata/metadata_h.xlsx
+++ b/data/metadata/metadata_h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/david_echajaya_urosario_edu_co/Documents/Educacion/Cursos/Henry_Programacion/Road-Accidents-DA/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5BF05158FB1B20115994C8F244A7E036" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9354B4F0-3257-4952-A5AB-450E2C5B0CE3}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_2BB1D69C5BF05158FB1B20115994C8F244A7E036" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78ECAEE7-0DED-474C-8C9E-0568870B7347}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -161,6 +161,30 @@
   </si>
   <si>
     <t>Vehículo del acusado/a del hecho, sin implicar culpabilidad legal</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>Cuantitativa</t>
+  </si>
+  <si>
+    <t>Categorica</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Discreta</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Continua</t>
   </si>
 </sst>
 </file>
@@ -189,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,13 +236,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -236,6 +274,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,9 +576,11 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +590,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -557,8 +607,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -568,8 +624,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -579,8 +641,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -590,8 +658,14 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -601,8 +675,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -612,8 +692,14 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -623,8 +709,14 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -634,8 +726,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -645,8 +743,14 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -656,8 +760,14 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -667,8 +777,14 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -678,8 +794,14 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -689,8 +811,14 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -700,8 +828,14 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -711,8 +845,14 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -722,8 +862,14 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -733,8 +879,14 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -744,8 +896,14 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -755,8 +913,14 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -766,8 +930,14 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -776,6 +946,12 @@
       </c>
       <c r="C22" t="s">
         <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
